--- a/6. bug report Web App/Bug_Report_Template.xlsx
+++ b/6. bug report Web App/Bug_Report_Template.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>Bug ID</t>
   </si>
@@ -221,6 +221,24 @@
   </si>
   <si>
     <t>InvalidCountInCart.png</t>
+  </si>
+  <si>
+    <t>IntermittentApplicationFailure.png</t>
+  </si>
+  <si>
+    <t>BUG-JS-009</t>
+  </si>
+  <si>
+    <t>The Application fails to load intermittently for few minutes at a time</t>
+  </si>
+  <si>
+    <t>Go to application home page</t>
+  </si>
+  <si>
+    <t>The application home page should load successfully everytime</t>
+  </si>
+  <si>
+    <t>The application fails to load intermittently</t>
   </si>
 </sst>
 </file>
@@ -294,14 +312,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,22 +733,22 @@
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -744,28 +762,28 @@
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>33</v>
       </c>
     </row>
@@ -773,28 +791,28 @@
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="3" t="s">
         <v>37</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -802,24 +820,24 @@
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>45</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="3" t="s">
         <v>46</v>
       </c>
     </row>
@@ -827,28 +845,28 @@
       <c r="A8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="6" t="s">
+      <c r="I8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -856,29 +874,58 @@
       <c r="A9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="3" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
